--- a/我方交付/交付清单.xlsx
+++ b/我方交付/交付清单.xlsx
@@ -7,15 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="金梦斯特集成平台项目" sheetId="1" r:id="rId1"/>
+    <sheet name="任务计划" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>患者主索引</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25,66 +24,155 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>服务模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>●</t>
+    <t>集成平台（产品方向）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成平台（技术方向）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>数据中心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>直接提供产品研发支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HL7、CDA标准咨询，按周培训
-涉及业务流程分析，消息发送场景等
-覆盖32交互标准，54共享文档标准
-协助与院方沟通需求，讲解方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供orion等消息组件技术培训
-消息适配器（Java）的解析、封装（Java）组件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集成平台（产品方向）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集成平台（技术方向）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存储模型设计，产品UI,DB相关的设计，按周培训</t>
+    <t>HL7V3和CDA标准培训</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检验系统、RIS系统与平台集成流程培训</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB设计指导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品UI设计指导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54本共享文档范围确定支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+32本交互服务实现范围确定支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统部署培训</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息适配器调用培训</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息适配器开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务系统数据与共享文档之间数据对应关系指导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划开始时间</t>
+    <rPh sb="0" eb="1">
+      <t>ji h</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kai shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi jian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划完成时间</t>
+    <rPh sb="0" eb="1">
+      <t>ji h</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wan cheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际开始时间</t>
+    <rPh sb="0" eb="1">
+      <t>shi ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kai shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际结束时间</t>
+    <rPh sb="0" eb="1">
+      <t>shi ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <rPh sb="0" eb="1">
+      <t>fu ze ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级子任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级子任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者主索引系统设计文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者主索引系统需求讲解（业务场景、接口讲解）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统操作用户手册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史数据清洗与导入思路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orion平台消息组件技术培训</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主数据系统需求讲解（业务场景、接口讲解）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主数据系统设计文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -92,7 +180,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,16 +204,37 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -148,26 +257,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,182 +612,357 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="34.625" customWidth="1"/>
-    <col min="2" max="5" width="10.625" customWidth="1"/>
-    <col min="6" max="6" width="33.75" customWidth="1"/>
-    <col min="7" max="7" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="20.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="59.375" customWidth="1"/>
+    <col min="3" max="8" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:8" s="9" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7"/>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
